--- a/biology/Zoologie/Chromidotilapia/Chromidotilapia.xlsx
+++ b/biology/Zoologie/Chromidotilapia/Chromidotilapia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chromidotilapia est un genre de poisson de la famille des Cichlidae d'Afrique de l'Ouest et centrale. Le genre Chromidotilapia est caractérisé notamment par la présence d'un renflement papilleux bien développé de chaque côté du pharinx entre les branchies, les écailles cycloïdes, l'absence de microbranchiospine, aucun dimorphisme sexuel dans la forme de la nageoire caudale.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon FishBase[1]
-Chromidotilapia cavalliensis (Thys van den Audenaerde &amp; Loiselle, 1971)
+          <t>Selon FishBase[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chromidotilapia cavalliensis (Thys van den Audenaerde &amp; Loiselle, 1971)
 Chromidotilapia elongata Lamboj, 1999
 Chromidotilapia guntheri
 Chromidotilapia kingsleyae Boulenger, 1898
@@ -524,9 +541,43 @@
 Chromidotilapia mrac Lamboj, 2002
 Chromidotilapia nana Lamboj, 2003
 Chromidotilapia regani (Pellegrin, 1906)
-Chromidotilapia schoutedeni (Poll &amp; Thys van den Audenaerde, 1967)
-Selon ITIS[2]
-Chromidotilapia elongata Lamboj, 1999
+Chromidotilapia schoutedeni (Poll &amp; Thys van den Audenaerde, 1967)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chromidotilapia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chromidotilapia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chromidotilapia elongata Lamboj, 1999
 Chromidotilapia guntheri (Sauvage, 1882)
 Chromidotilapia kingsleyae Boulenger, 1898
 Chromidotilapia linkei Staeck, 1980
